--- a/biology/Zoologie/Penthetria_graciliventris/Penthetria_graciliventris.xlsx
+++ b/biology/Zoologie/Penthetria_graciliventris/Penthetria_graciliventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia graciliventris
 Penthetria graciliventris est une espèce fossile de mouche ou Diptère de la famille des Bibionidae ou "mouches de Saint-Marc" (ou mouches noires), et du genre Penthetria.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Penthetria graciliventris est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom Plecia graciliventris[1],[2]. 
-Fossiles
-L'holotype C 90 et sa contre empreinte Ni 3, de l'ère Cénozoïque, et de l'époque Éocène (38 à 33,9 Ma.) fait partie de la collection du Muséum d'histoire naturelle de Marseille et vient de la formation de Célas dans le Gard[1], comme l'espèce Penthetria elongatipennis.
-Reclassement
-Cette espèce avait été classée dans le genre Plecia initialement. Elle a été reclassée en 2017 par J. Skartveit and A. Nel[3] dans le genre Penthetria.
-Étymologie
-L'épithète spécifique graciliventris signifie en latin « ventre mince ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Penthetria graciliventris est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom Plecia graciliventris,. 
 </t>
         </is>
       </c>
@@ -546,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] :
-« Corps noir-brunâtre, aile brun-jaunâtre. Tête arrondie, porte une antenne cordiforme. Thorax ovale, renflé en bouclier ; dépression en U portant des poils espacés. Abdomen grêle, cylindrique, allongé ; 6 segments visibles, sur lesquels le contact des sternites et des pleurites est bien apparent ; le dernier segment manque. Ailes à nervation typique de Plecia (v. figure) ; branche antérieure du Rs courte, mais fortement ondulée ; nervures portant encore des poils fins ; haltères terminées par une masse en boule. Pattes longues. »[1].
-Dimensions
-La longueur totale du corps conservé est de 7,5 mm pour une longueur totale 7,7 mm ?; la longueur de la tête 1 mm; la longueur du thorax 2 mm; la longueur de l'abdomen 4,5 mm; la longueur des ailes 6 mm[1].
-Affinités
-L'échantillon est voisin de Plecia försteri, mais il en diffère par l'abdomen cylindrique et les ailes moins longues[4].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype C 90 et sa contre empreinte Ni 3, de l'ère Cénozoïque, et de l'époque Éocène (38 à 33,9 Ma.) fait partie de la collection du Muséum d'histoire naturelle de Marseille et vient de la formation de Célas dans le Gard, comme l'espèce Penthetria elongatipennis.
 </t>
         </is>
       </c>
@@ -583,13 +591,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reclassement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce avait été classée dans le genre Plecia initialement. Elle a été reclassée en 2017 par J. Skartveit and A. Nel dans le genre Penthetria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique graciliventris signifie en latin « ventre mince ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] :
+« Corps noir-brunâtre, aile brun-jaunâtre. Tête arrondie, porte une antenne cordiforme. Thorax ovale, renflé en bouclier ; dépression en U portant des poils espacés. Abdomen grêle, cylindrique, allongé ; 6 segments visibles, sur lesquels le contact des sternites et des pleurites est bien apparent ; le dernier segment manque. Ailes à nervation typique de Plecia (v. figure) ; branche antérieure du Rs courte, mais fortement ondulée ; nervures portant encore des poils fins ; haltères terminées par une masse en boule. Pattes longues. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps conservé est de 7,5 mm pour une longueur totale 7,7 mm ?; la longueur de la tête 1 mm; la longueur du thorax 2 mm; la longueur de l'abdomen 4,5 mm; la longueur des ailes 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échantillon est voisin de Plecia försteri, mais il en diffère par l'abdomen cylindrique et les ailes moins longues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_graciliventris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon Nicolas Théobald, les Bibionidés sont le genre dominant de la faune entomologique du Sannoisien du Gard. Ces diptères floricoles qui vivent sur des îlots herbeux d'un lac aux eaux calmes et peu profondes ont des larves aquatiques[5]. Toutefois, la disposition variée des couches sédimentaires indique des crues périodiques[6]. L'ensemble a un caractère méditerranéen à affinités subtropicales très prononcées[7]. Le climat est semblable au climat actuel des Indes orientales et du sud de la Chine[8].</t>
+Selon Nicolas Théobald, les Bibionidés sont le genre dominant de la faune entomologique du Sannoisien du Gard. Ces diptères floricoles qui vivent sur des îlots herbeux d'un lac aux eaux calmes et peu profondes ont des larves aquatiques. Toutefois, la disposition variée des couches sédimentaires indique des crues périodiques. L'ensemble a un caractère méditerranéen à affinités subtropicales très prononcées. Le climat est semblable au climat actuel des Indes orientales et du sud de la Chine.</t>
         </is>
       </c>
     </row>
